--- a/Team-Data/2013-14/1-3-2013-14.xlsx
+++ b/Team-Data/2013-14/1-3-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.545</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J2" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K2" t="n">
         <v>0.464</v>
@@ -693,43 +760,43 @@
         <v>9.4</v>
       </c>
       <c r="M2" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O2" t="n">
         <v>16.4</v>
       </c>
       <c r="P2" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.762</v>
+        <v>0.759</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S2" t="n">
         <v>32.7</v>
       </c>
       <c r="T2" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U2" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
         <v>19.2</v>
@@ -738,13 +805,13 @@
         <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC2" t="n">
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -762,10 +829,10 @@
         <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -774,16 +841,16 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP2" t="n">
         <v>19</v>
       </c>
-      <c r="AP2" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -798,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>25</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -816,7 +883,7 @@
         <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.394</v>
+        <v>0.406</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>81.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.446</v>
+        <v>0.45</v>
       </c>
       <c r="L3" t="n">
         <v>6.4</v>
       </c>
       <c r="M3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="U3" t="n">
         <v>18.8</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="O3" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.766</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>42</v>
-      </c>
-      <c r="U3" t="n">
-        <v>18.9</v>
-      </c>
       <c r="V3" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="W3" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X3" t="n">
         <v>4.8</v>
@@ -914,34 +981,34 @@
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
         <v>18.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG3" t="n">
         <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>25</v>
@@ -950,25 +1017,25 @@
         <v>15</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
         <v>25</v>
       </c>
       <c r="AN3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR3" t="n">
         <v>22</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>20</v>
       </c>
       <c r="AS3" t="n">
         <v>18</v>
@@ -980,7 +1047,7 @@
         <v>30</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1174,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>7</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
@@ -1323,16 +1390,16 @@
         <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1341,7 +1408,7 @@
         <v>15</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>-1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1684,7 +1751,7 @@
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1693,10 +1760,10 @@
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS7" t="n">
         <v>15</v>
@@ -1705,16 +1772,16 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX7" t="n">
         <v>20</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>18</v>
       </c>
       <c r="AY7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -1758,91 +1825,91 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.576</v>
+        <v>0.594</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="J8" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L8" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M8" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O8" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R8" t="n">
         <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T8" t="n">
         <v>40.7</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y8" t="n">
         <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.5</v>
+        <v>103.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1854,25 +1921,25 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1887,31 +1954,31 @@
         <v>27</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.469</v>
+        <v>0.452</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J9" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.442</v>
+        <v>0.439</v>
       </c>
       <c r="L9" t="n">
         <v>7.3</v>
       </c>
       <c r="M9" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P9" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q9" t="n">
         <v>0.728</v>
@@ -1985,13 +2052,13 @@
         <v>12.5</v>
       </c>
       <c r="S9" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V9" t="n">
         <v>15.1</v>
@@ -2003,22 +2070,22 @@
         <v>5.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AA9" t="n">
         <v>21.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
@@ -2027,70 +2094,70 @@
         <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
         <v>6</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA9" t="n">
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
@@ -2233,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2260,19 +2327,19 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
         <v>14</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.629</v>
+        <v>0.618</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,55 +2389,55 @@
         <v>39.1</v>
       </c>
       <c r="J11" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K11" t="n">
         <v>0.464</v>
       </c>
       <c r="L11" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M11" t="n">
         <v>24.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.392</v>
+        <v>0.397</v>
       </c>
       <c r="O11" t="n">
         <v>15.7</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="R11" t="n">
         <v>11.1</v>
       </c>
       <c r="S11" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="T11" t="n">
-        <v>46.5</v>
+        <v>46.4</v>
       </c>
       <c r="U11" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V11" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W11" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
         <v>4.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA11" t="n">
         <v>19.9</v>
@@ -2379,7 +2446,7 @@
         <v>103.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AD11" t="n">
         <v>2</v>
@@ -2394,16 +2461,16 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
@@ -2415,16 +2482,16 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,16 +2500,16 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>29</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
@@ -2454,7 +2521,7 @@
         <v>19</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
         <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>0.629</v>
+        <v>0.618</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J12" t="n">
-        <v>78.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.474</v>
@@ -2516,16 +2583,16 @@
         <v>26.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P12" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.699</v>
+        <v>0.694</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
@@ -2534,31 +2601,31 @@
         <v>34.2</v>
       </c>
       <c r="T12" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U12" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>6.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
         <v>20.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AC12" t="n">
         <v>3.1</v>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2621,16 +2688,16 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2761,7 +2828,7 @@
         <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
@@ -2770,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
@@ -2794,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.657</v>
+        <v>0.647</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L14" t="n">
         <v>7.9</v>
@@ -2880,52 +2947,52 @@
         <v>23.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O14" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R14" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S14" t="n">
         <v>32.9</v>
       </c>
       <c r="T14" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X14" t="n">
         <v>4.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA14" t="n">
         <v>23.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.1</v>
+        <v>104.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD14" t="n">
         <v>2</v>
@@ -2940,16 +3007,16 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -2970,13 +3037,13 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
         <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -2985,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
         <v>23</v>
@@ -2994,13 +3061,13 @@
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>0.424</v>
+        <v>0.406</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J15" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
@@ -3062,7 +3129,7 @@
         <v>25.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O15" t="n">
         <v>16.5</v>
@@ -3071,25 +3138,25 @@
         <v>22.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R15" t="n">
         <v>10.2</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X15" t="n">
         <v>6.1</v>
@@ -3098,28 +3165,28 @@
         <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA15" t="n">
         <v>18.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-3.9</v>
+        <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
         <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
@@ -3140,52 +3207,52 @@
         <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT15" t="n">
         <v>17</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AU15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV15" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.438</v>
+        <v>0.452</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,85 +3299,85 @@
         <v>37.2</v>
       </c>
       <c r="J16" t="n">
-        <v>82.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L16" t="n">
         <v>4.8</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="P16" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R16" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S16" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V16" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
         <v>4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z16" t="n">
         <v>20.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.2</v>
+        <v>94.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="n">
         <v>16</v>
       </c>
-      <c r="AF16" t="n">
-        <v>17</v>
-      </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
@@ -3322,34 +3389,34 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>6</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
@@ -3358,13 +3425,13 @@
         <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3486,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>6</v>
@@ -3498,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
@@ -3546,7 +3613,7 @@
         <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3689,16 +3756,16 @@
         <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>4.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>11</v>
@@ -3889,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3907,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
         <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.484</v>
+        <v>0.467</v>
       </c>
       <c r="H20" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I20" t="n">
         <v>39.7</v>
       </c>
       <c r="J20" t="n">
-        <v>87.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O20" t="n">
         <v>17.1</v>
@@ -3984,13 +4051,13 @@
         <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S20" t="n">
         <v>30.5</v>
       </c>
       <c r="T20" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
         <v>22.9</v>
@@ -3999,43 +4066,43 @@
         <v>13.4</v>
       </c>
       <c r="W20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA20" t="n">
         <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>103</v>
+        <v>103.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ20" t="n">
         <v>4</v>
@@ -4056,19 +4123,19 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4077,13 +4144,13 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>23</v>
@@ -4092,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>0.313</v>
+        <v>0.323</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K21" t="n">
         <v>0.432</v>
@@ -4157,28 +4224,28 @@
         <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="P21" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="S21" t="n">
         <v>28.6</v>
       </c>
       <c r="T21" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="U21" t="n">
         <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W21" t="n">
         <v>8.6</v>
@@ -4196,31 +4263,31 @@
         <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4259,13 +4326,13 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
         <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
@@ -4274,10 +4341,10 @@
         <v>23</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,13 +4463,13 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
@@ -4414,13 +4481,13 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4435,19 +4502,19 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV22" t="n">
         <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AH23" t="n">
         <v>9</v>
@@ -4596,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO23" t="n">
         <v>27</v>
@@ -4614,28 +4681,28 @@
         <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
         <v>19</v>
       </c>
       <c r="AV23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX23" t="n">
         <v>18</v>
       </c>
-      <c r="AW23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>16</v>
-      </c>
       <c r="AY23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA23" t="n">
         <v>25</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>26</v>
       </c>
       <c r="BB23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>23</v>
@@ -4763,7 +4830,7 @@
         <v>3</v>
       </c>
       <c r="AI24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
@@ -4799,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4820,7 +4887,7 @@
         <v>15</v>
       </c>
       <c r="BB24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4945,7 +5012,7 @@
         <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>16</v>
@@ -4960,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>14</v>
@@ -4969,10 +5036,10 @@
         <v>14</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>17</v>
@@ -4987,7 +5054,7 @@
         <v>25</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
@@ -5002,7 +5069,7 @@
         <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5312,7 +5379,7 @@
         <v>18</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK27" t="n">
         <v>20</v>
@@ -5327,10 +5394,10 @@
         <v>23</v>
       </c>
       <c r="AO27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP27" t="n">
         <v>6</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>5</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
@@ -5339,7 +5406,7 @@
         <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT27" t="n">
         <v>21</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM28" t="n">
         <v>16</v>
@@ -5515,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5524,19 +5591,19 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -5580,91 +5647,91 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.516</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J29" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L29" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M29" t="n">
         <v>21.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.353</v>
+        <v>0.348</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="Q29" t="n">
         <v>0.78</v>
       </c>
       <c r="R29" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S29" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T29" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="U29" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="V29" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W29" t="n">
         <v>7.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
         <v>22.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF29" t="n">
         <v>12</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>11</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -5688,10 +5755,10 @@
         <v>12</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
         <v>9</v>
@@ -5700,22 +5767,22 @@
         <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5724,16 +5791,16 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" t="n">
         <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.306</v>
+        <v>0.314</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
@@ -5780,28 +5847,28 @@
         <v>35.4</v>
       </c>
       <c r="J30" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K30" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L30" t="n">
         <v>6.4</v>
       </c>
       <c r="M30" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O30" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P30" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="R30" t="n">
         <v>11.6</v>
@@ -5810,13 +5877,13 @@
         <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U30" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
         <v>7.2</v>
@@ -5831,13 +5898,13 @@
         <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-7.8</v>
+        <v>-7.7</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5849,7 +5916,7 @@
         <v>29</v>
       </c>
       <c r="AG30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -5864,22 +5931,22 @@
         <v>26</v>
       </c>
       <c r="AL30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP30" t="n">
         <v>25</v>
       </c>
-      <c r="AP30" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
@@ -5894,10 +5961,10 @@
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
@@ -5944,94 +6011,94 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.467</v>
+        <v>0.483</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J31" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P31" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.744</v>
+        <v>0.738</v>
       </c>
       <c r="R31" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S31" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T31" t="n">
         <v>42.5</v>
       </c>
       <c r="U31" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="V31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W31" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y31" t="n">
         <v>3.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AA31" t="n">
         <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.1</v>
+        <v>-0.7</v>
       </c>
       <c r="AD31" t="n">
         <v>30</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6046,25 +6113,25 @@
         <v>16</v>
       </c>
       <c r="AL31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM31" t="n">
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS31" t="n">
         <v>19</v>
@@ -6073,16 +6140,16 @@
         <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
         <v>23</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
         <v>5</v>
@@ -6091,13 +6158,13 @@
         <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-3-2013-14</t>
+          <t>2014-01-03</t>
         </is>
       </c>
     </row>
